--- a/PSet 2.xlsx
+++ b/PSet 2.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donnel26\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/donnel26_purdue_edu/Documents/Desktop/Courses Spring '25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACF5E8-BA51-415E-96B2-F99058B41C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B463E072-AF8B-4276-B50C-7D0B71C3AA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{61B41BEC-A4E3-45DF-A8B2-636DF7572DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61B41BEC-A4E3-45DF-A8B2-636DF7572DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 1 Breakeven" sheetId="11" r:id="rId2"/>
     <sheet name="Problem 2" sheetId="6" r:id="rId3"/>
-    <sheet name="Problem 3" sheetId="5" r:id="rId4"/>
-    <sheet name="Problem 3 part 3" sheetId="12" r:id="rId5"/>
+    <sheet name="Problem 3" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>Parameters</t>
   </si>
@@ -272,12 +271,6 @@
   </si>
   <si>
     <t>Water cost ($/gallon)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Benefits</t>
@@ -434,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -548,12 +535,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -566,6 +550,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79696ED9-79EF-4253-803B-84B71E9731F1}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1022,7 +1018,7 @@
         <v>0.02</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>0.15</v>
@@ -1045,7 +1041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1070,11 +1066,12 @@
       <c r="H17">
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1104,12 +1101,13 @@
         <f t="shared" si="0"/>
         <v>134884.31745024005</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="37">
         <f t="shared" si="0"/>
         <v>145675.06284625924</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1139,14 +1137,15 @@
         <f>G19*(1-$B$7)</f>
         <v>44034.241343999987</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="35">
         <f>H19*(1-$B$7)</f>
         <v>41392.186863359988</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1169,12 +1168,13 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="35">
         <f>(B2*(1+B11)^I17)*E11</f>
         <v>103381.71008843517</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1206,12 +1206,17 @@
         <f t="shared" si="1"/>
         <v>178918.55879424003</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="37">
         <f t="shared" si="1"/>
         <v>290448.95979805442</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1237,15 +1242,18 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="35">
         <f>0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1277,12 +1285,17 @@
         <f t="shared" si="2"/>
         <v>178918.55879424003</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="37">
         <f t="shared" si="2"/>
         <v>290448.95979805442</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
@@ -1291,10 +1304,12 @@
         <v>111877.25345686279</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
@@ -1303,14 +1318,16 @@
         <v>0.18574950890900821</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -1319,15 +1336,23 @@
         <v>1.2051082980042487</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+        <v>93</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1352,11 +1377,12 @@
       <c r="H32">
         <v>6</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1388,12 +1414,13 @@
         <f t="shared" si="3"/>
         <v>119773.41380153075</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="35">
         <f t="shared" si="3"/>
         <v>126818.90873103258</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1425,14 +1452,15 @@
         <f t="shared" si="4"/>
         <v>39101.146149752029</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="35">
         <f t="shared" si="4"/>
         <v>36034.389588987171</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1455,12 +1483,13 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="35">
         <f>I20/(1+$B$11)^I32</f>
         <v>89999.999999999985</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1492,12 +1521,13 @@
         <f t="shared" si="5"/>
         <v>158874.55995128278</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="35">
         <f t="shared" si="5"/>
         <v>252853.29832001973</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>252853.29832001973</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
         <v>20</v>
       </c>
@@ -1580,10 +1610,10 @@
         <v>111877.25345686295</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="7" t="s">
         <v>21</v>
       </c>
@@ -1592,14 +1622,14 @@
         <v>0.1624995185382252</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="7" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1638,7 @@
         <v>1.2914708438056601</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1AC577-109D-4198-89A2-C0078B45349D}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1632,7 +1662,7 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1655,7 +1685,7 @@
         <v>612000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1693,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1701,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1679,11 +1709,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +1725,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1710,24 +1740,24 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="32">
         <v>6.7811666164752198E-3</v>
       </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
+      <c r="F9" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1735,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1743,594 +1773,1200 @@
         <v>0.02</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:9" ht="15">
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:9" ht="15">
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="35">
+        <v>0</v>
+      </c>
+      <c r="C17" s="35">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="35">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="35">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="35">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="35">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="35">
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="35">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37">
         <f t="shared" ref="D18:I18" si="0">$B$3*(1+$E$9)^D17</f>
         <v>86156.706983558615</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="37">
         <f t="shared" si="0"/>
         <v>86740.94996874097</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="37">
         <f t="shared" si="0"/>
         <v>87329.154802950332</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="37">
         <f t="shared" si="0"/>
         <v>87921.348352145098</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="37">
         <f t="shared" si="0"/>
         <v>88517.557664466149</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="37">
         <f t="shared" si="0"/>
         <v>89117.80997147235</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="35">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
         <f>$B$4*(1-$B$7)</f>
         <v>56400</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="35">
         <f>D19*(1-$B$7)</f>
         <v>53016</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="35">
         <f>E19*(1-$B$7)</f>
         <v>49835.039999999994</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="35">
         <f>F19*(1-$B$7)</f>
         <v>46844.93759999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="35">
         <f>G19*(1-$B$7)</f>
         <v>44034.241343999987</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="35">
         <f>H19*(1-$B$7)</f>
         <v>41392.186863359988</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="A20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="35">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
         <f>(B2*(1+B11)^I17)*E11</f>
         <v>103381.71008843517</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="35">
         <f t="shared" ref="B21:I21" si="1">B19+B18+B20</f>
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="35">
         <f t="shared" si="1"/>
         <v>142556.7069835586</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="35">
         <f t="shared" si="1"/>
         <v>139756.94996874098</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="35">
         <f t="shared" si="1"/>
         <v>137164.19480295031</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="35">
         <f t="shared" si="1"/>
         <v>134766.28595214509</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="35">
         <f t="shared" si="1"/>
         <v>132551.79900846613</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="37">
         <f t="shared" si="1"/>
         <v>233891.70692326751</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="A23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="35">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
         <f>E2</f>
         <v>612000</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="C24" s="1"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="A25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="35">
         <f t="shared" ref="B25:I25" si="2">B21-B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="37">
         <f t="shared" si="2"/>
         <v>-612000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="37">
         <f>D21-D23</f>
         <v>142556.7069835586</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="35">
         <f t="shared" si="2"/>
         <v>139756.94996874098</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="35">
         <f t="shared" si="2"/>
         <v>137164.19480295031</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="35">
         <f t="shared" si="2"/>
         <v>134766.28595214509</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="35">
         <f t="shared" si="2"/>
         <v>132551.79900846613</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="37">
         <f t="shared" si="2"/>
         <v>233891.70692326751</v>
       </c>
     </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="38">
         <f>NPV(E8,C25:I25)</f>
         <v>1.4586647874517979E-5</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="40">
         <f>IRR(C25:I25)</f>
         <v>0.12200000000892852</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="35">
         <f>NPV(E8,C21:I21)/(NPV(E8,C23:I23))</f>
         <v>1.0000000000267422</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="35">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="35">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="35">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="35">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="35">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="35">
         <v>6</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="A33" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="35">
         <f t="shared" ref="B33:I33" si="3">B18/(1+$B$11)^B32</f>
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="35">
         <f t="shared" si="3"/>
         <v>82811.13704686526</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="35">
         <f t="shared" si="3"/>
         <v>81737.934475372385</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="35">
         <f t="shared" si="3"/>
         <v>80678.640223467068</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="35">
         <f t="shared" si="3"/>
         <v>79633.074044326524</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="35">
         <f t="shared" si="3"/>
         <v>78601.058027061954</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="35">
         <f t="shared" si="3"/>
         <v>77582.416566445812</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="A34" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="35">
         <f t="shared" ref="B34:I34" si="4">B19/(1+$B$11)^B32</f>
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="35">
         <f t="shared" si="4"/>
         <v>54209.919261822375</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="35">
         <f t="shared" si="4"/>
         <v>49958.160888346116</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="35">
         <f t="shared" si="4"/>
         <v>46039.873759848371</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="35">
         <f t="shared" si="4"/>
         <v>42428.903268879869</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="35">
         <f t="shared" si="4"/>
         <v>39101.146149752029</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="35">
         <f t="shared" si="4"/>
         <v>36034.389588987171</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="A35" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
         <f>I20/(1+$B$11)^I32</f>
         <v>89999.999999999985</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="A36" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="35">
         <f>B33+B34+B35</f>
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="35">
         <f t="shared" ref="C36:I36" si="5">C33+C34+C35</f>
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="35">
         <f t="shared" si="5"/>
         <v>137021.05630868764</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="35">
         <f t="shared" si="5"/>
         <v>131696.09536371852</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="35">
         <f t="shared" si="5"/>
         <v>126718.51398331544</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="35">
         <f t="shared" si="5"/>
         <v>122061.97731320639</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="35">
         <f t="shared" si="5"/>
         <v>117702.20417681398</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="35">
         <f t="shared" si="5"/>
         <v>203616.80615543295</v>
       </c>
     </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+    </row>
     <row r="38" spans="1:9">
-      <c r="A38" t="s">
+      <c r="A38" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="35">
         <f t="shared" ref="B38:I38" si="6">B23/(1+$B$11)^B32</f>
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="35">
         <f t="shared" si="6"/>
         <v>600000</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
     <row r="40" spans="1:9">
-      <c r="A40" t="s">
+      <c r="A40" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="35">
         <f>B36+B38</f>
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="35">
         <f>C36-C38</f>
         <v>-600000</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="35">
         <f>D36-D38</f>
         <v>137021.05630868764</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="35">
         <f t="shared" ref="E40:H40" si="7">E36-E38</f>
         <v>131696.09536371852</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="35">
         <f t="shared" si="7"/>
         <v>126718.51398331544</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="35">
         <f t="shared" si="7"/>
         <v>122061.97731320639</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="35">
         <f t="shared" si="7"/>
         <v>117702.20417681398</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="35">
         <f>I36-I38</f>
         <v>203616.80615543295</v>
       </c>
     </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+    </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="38">
         <f>NPV(B5,C40:I40)</f>
         <v>1.4586747221818023E-5</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="40">
         <f>IRR(C40:I40)</f>
         <v>0.10000000000875331</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="7"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="35">
         <f>NPV(B5,C21:I21)/NPV(B5,C23:I23)</f>
         <v>1.0694923262506049</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,7 +2978,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2353,7 +2989,7 @@
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="22"/>
+    <col min="13" max="13" width="8.75" style="21"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="10.75" customWidth="1"/>
   </cols>
@@ -2453,7 +3089,7 @@
       <c r="L9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -2504,7 +3140,7 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <f>J10-K10-L10-H10</f>
         <v>0</v>
       </c>
@@ -2512,7 +3148,7 @@
         <f>M10*$E$4</f>
         <v>0</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <f>J10-K10-I10-N10-C10</f>
         <v>-700</v>
       </c>
@@ -2559,7 +3195,7 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <f t="shared" ref="M11:M22" si="1">J11-K11-L11-H11</f>
         <v>0</v>
       </c>
@@ -2567,7 +3203,7 @@
         <f t="shared" ref="N11:N22" si="2">M11*$E$4</f>
         <v>0</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="21">
         <f>J11-K11-I11-N11-C11</f>
         <v>-1000</v>
       </c>
@@ -2614,7 +3250,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2622,7 +3258,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <f>J12-K12-I12-N12-C12</f>
         <v>-800</v>
       </c>
@@ -2670,7 +3306,7 @@
         <f>SUM($B$10:$B$12)/5</f>
         <v>2500</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <f>J13-K13-L13-H13</f>
         <v>-912.87360000000001</v>
       </c>
@@ -2738,7 +3374,7 @@
         <f>M14*$E$4</f>
         <v>-152.03385670376449</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="21">
         <f>J14-K14-I14-N14</f>
         <v>586.35630068904197</v>
       </c>
@@ -2786,7 +3422,7 @@
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <f>J15-K15-L15-H15</f>
         <v>-540.34622171915044</v>
       </c>
@@ -2794,7 +3430,7 @@
         <f>M15*$E$4</f>
         <v>-108.06924434383009</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="21">
         <f t="shared" ref="O15:O22" si="8">J15-K15-I15-N15</f>
         <v>657.77408832910749</v>
       </c>
@@ -2842,7 +3478,7 @@
         <f>SUM($B$10:$B$12)/5</f>
         <v>2500</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <f>J16-K16-L16-H16</f>
         <v>-245.67793303630469</v>
       </c>
@@ -2850,7 +3486,7 @@
         <f t="shared" si="2"/>
         <v>-49.13558660726094</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="21">
         <f t="shared" si="8"/>
         <v>780.7128045317387</v>
       </c>
@@ -2898,7 +3534,7 @@
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <f t="shared" si="1"/>
         <v>136.07125693295234</v>
       </c>
@@ -2906,7 +3542,7 @@
         <f>M17*$E$4</f>
         <v>27.214251386590469</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="21">
         <f t="shared" si="8"/>
         <v>964.29256858400652</v>
       </c>
@@ -2953,7 +3589,7 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <f t="shared" si="1"/>
         <v>3122.8833832121841</v>
       </c>
@@ -2961,7 +3597,7 @@
         <f t="shared" si="2"/>
         <v>624.57667664243684</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="21">
         <f t="shared" si="8"/>
         <v>722.17711465040372</v>
       </c>
@@ -3008,7 +3644,7 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <f t="shared" si="1"/>
         <v>3740.4081661723485</v>
       </c>
@@ -3016,7 +3652,7 @@
         <f t="shared" si="2"/>
         <v>748.08163323446979</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="21">
         <f t="shared" si="8"/>
         <v>1074.106573664988</v>
       </c>
@@ -3061,7 +3697,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <f t="shared" si="1"/>
         <v>4524.8677772869951</v>
       </c>
@@ -3069,7 +3705,7 @@
         <f t="shared" si="2"/>
         <v>904.97355545739902</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="21">
         <f t="shared" si="8"/>
         <v>3619.8942218295961</v>
       </c>
@@ -3114,7 +3750,7 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <f t="shared" si="1"/>
         <v>5361.6845624039706</v>
       </c>
@@ -3122,7 +3758,7 @@
         <f t="shared" si="2"/>
         <v>1072.3369124807941</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="21">
         <f t="shared" si="8"/>
         <v>4289.3476499231765</v>
       </c>
@@ -3167,7 +3803,7 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <f t="shared" si="1"/>
         <v>6475.991774843761</v>
       </c>
@@ -3175,13 +3811,13 @@
         <f t="shared" si="2"/>
         <v>1295.1983549687523</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="21">
         <f t="shared" si="8"/>
         <v>5180.793419875009</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="8">
@@ -3194,7 +3830,7 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2">
@@ -3218,11 +3854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956934C8-692F-40E2-BD07-D6CFE19D3643}">
-  <dimension ref="A1:BE42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92EE2F6-0D18-455A-9535-A29735CC143E}">
+  <dimension ref="A1:BD65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3232,7 +3868,7 @@
     <col min="3" max="5" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="27.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="11" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="11" customWidth="1"/>
     <col min="10" max="11" width="12.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.875" style="11" customWidth="1"/>
@@ -3243,7 +3879,7 @@
     <col min="21" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -3255,12 +3891,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25">
+    <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="11"/>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>0.1</v>
       </c>
       <c r="K2" s="11">
@@ -3272,11 +3908,8 @@
       <c r="M2" s="11">
         <v>4300000</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25">
+    </row>
+    <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="11"/>
       <c r="B3" s="13" t="s">
         <v>56</v>
@@ -3302,11 +3935,8 @@
       <c r="M3" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.25">
+    </row>
+    <row r="4" spans="1:13" ht="14.25">
       <c r="A4" s="11"/>
       <c r="D4" s="11">
         <f>C22*C3</f>
@@ -3329,14 +3959,8 @@
       <c r="M4" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="K5" s="11">
@@ -3348,11 +3972,8 @@
       <c r="M5" s="11">
         <v>125000</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>48</v>
@@ -3370,10 +3991,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="K6" s="11">
         <v>2</v>
@@ -3381,21 +4002,18 @@
       <c r="L6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>0.02</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25">
+    </row>
+    <row r="7" spans="1:13" ht="14.25">
       <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.12</v>
       </c>
       <c r="D7" s="11">
@@ -3416,7 +4034,7 @@
       </c>
       <c r="H7" s="11">
         <f>G7/$G$12</f>
-        <v>7.1185118362711721</v>
+        <v>0.36322188863211652</v>
       </c>
       <c r="K7" s="11">
         <v>2</v>
@@ -3427,18 +4045,15 @@
       <c r="M7" s="11">
         <v>1.75</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25">
+    </row>
+    <row r="8" spans="1:13" ht="14.25">
       <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.1</v>
       </c>
       <c r="D8" s="11">
@@ -3459,7 +4074,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" ref="H8:H10" si="0">G8/$G$12</f>
-        <v>1.8843559557043452</v>
+        <v>9.614921557040397E-2</v>
       </c>
       <c r="K8" s="11">
         <v>2</v>
@@ -3470,18 +4085,15 @@
       <c r="M8" s="11">
         <v>45000</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25">
+    </row>
+    <row r="9" spans="1:13" ht="14.25">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="21">
+        <v>83</v>
+      </c>
+      <c r="C9" s="20">
         <v>0.14000000000000001</v>
       </c>
       <c r="D9" s="11">
@@ -3502,7 +4114,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>5.2155208821326093</v>
+        <v>0.26612182273209101</v>
       </c>
       <c r="K9" s="11">
         <v>2</v>
@@ -3513,21 +4125,15 @@
       <c r="M9" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25">
+    </row>
+    <row r="10" spans="1:13" ht="14.25">
       <c r="A10" s="11">
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.13</v>
       </c>
       <c r="D10" s="11">
@@ -3548,7 +4154,7 @@
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>2.0889956957593303</v>
+        <v>0.10659095319500451</v>
       </c>
       <c r="K10" s="11">
         <v>1</v>
@@ -3559,18 +4165,15 @@
       <c r="M10" s="11">
         <v>400000</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="11">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.15</v>
       </c>
       <c r="D11" s="11">
@@ -3587,11 +4190,11 @@
       </c>
       <c r="G11" s="11">
         <f>NPV($C$2,C42:Q42)</f>
-        <v>-2536471.1567642307</v>
+        <v>545303.8074609004</v>
       </c>
       <c r="H11" s="11">
         <f>G11/$G$12</f>
-        <v>-15.307384369867457</v>
+        <v>0.16791611987038407</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -3602,18 +4205,15 @@
       <c r="M11" s="11">
         <v>100000</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(G7:G11)</f>
-        <v>165702.45415390935</v>
+        <v>3247477.4183790404</v>
       </c>
       <c r="K12" s="11">
         <v>3</v>
@@ -3624,11 +4224,8 @@
       <c r="M12" s="11">
         <v>2500</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="K13" s="11">
@@ -3640,11 +4237,8 @@
       <c r="M13" s="11">
         <v>110</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="K14" s="11">
@@ -3656,11 +4250,8 @@
       <c r="M14" s="11">
         <v>10</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="K15" s="11">
@@ -3672,11 +4263,8 @@
       <c r="M15" s="11">
         <v>11000000</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="K16" s="11">
@@ -3688,12 +4276,11 @@
       <c r="M16" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="17" spans="1:56" ht="18" customHeight="1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B17" s="13"/>
       <c r="K17" s="11">
         <v>4</v>
@@ -3703,9 +4290,6 @@
       </c>
       <c r="M17" s="11">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:56">
@@ -3811,7 +4395,7 @@
     <row r="22" spans="1:56" ht="14.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="11">
         <v>1100000</v>
@@ -3864,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="11">
         <v>0</v>
@@ -3926,10 +4510,10 @@
     </row>
     <row r="24" spans="1:56" ht="14.25">
       <c r="A24" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11">
         <v>0</v>
@@ -3941,52 +4525,52 @@
         <v>0</v>
       </c>
       <c r="F24" s="11">
-        <f>$M$4*$M$2</f>
-        <v>301000</v>
+        <f>$M$8</f>
+        <v>45000</v>
       </c>
       <c r="G24" s="11">
-        <f>$M$4*$M$2</f>
-        <v>301000</v>
+        <f>$M$8</f>
+        <v>45000</v>
       </c>
       <c r="H24" s="11">
-        <f>$M$4*$M$2</f>
-        <v>301000</v>
+        <f>$M$8</f>
+        <v>45000</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24:Q24" si="3">$M$4*$M$2</f>
-        <v>301000</v>
+        <f t="shared" ref="I24:Q24" si="3">$M$8</f>
+        <v>45000</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
       <c r="Q24" s="11">
         <f t="shared" si="3"/>
-        <v>301000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="25" spans="1:56" ht="14.25">
@@ -3994,1832 +4578,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="G25" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="H25" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="I25" s="11">
-        <f t="shared" ref="I25:Q25" si="4">$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="L25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="M25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="P25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="Q25" s="11">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56" ht="14.25">
-      <c r="A26" s="11">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <f>$M$5*$M$9</f>
-        <v>68750</v>
-      </c>
-      <c r="G26" s="11">
-        <f>F26*(1+$M$6)</f>
-        <v>70125</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" ref="H26:Q26" si="5">G26*(1+$M$6)</f>
-        <v>71527.5</v>
-      </c>
-      <c r="I26" s="11">
-        <f t="shared" si="5"/>
-        <v>72958.05</v>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="5"/>
-        <v>74417.21100000001</v>
-      </c>
-      <c r="K26" s="11">
-        <f t="shared" si="5"/>
-        <v>75905.555220000009</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="5"/>
-        <v>77423.666324400008</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="5"/>
-        <v>78972.139650888013</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="5"/>
-        <v>80551.582443905776</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="5"/>
-        <v>82162.614092783886</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" si="5"/>
-        <v>83805.866374639561</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="5"/>
-        <v>85481.983702132347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56" ht="14.25">
-      <c r="A27" s="11">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <f>$M$11</f>
-        <v>100000</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" ref="G27:Q27" si="6">$M$11</f>
-        <v>100000</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="L27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="M27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="O27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56" ht="14.25">
-      <c r="A28" s="11">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <f>$M$14*$M$12</f>
-        <v>25000</v>
-      </c>
-      <c r="G28" s="11">
-        <f>$M$14*$M$12</f>
-        <v>25000</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" ref="H28:Q28" si="7">$M$14*$M$12</f>
-        <v>25000</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="L28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="M28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="O28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="P28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-      <c r="Q28" s="11">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56" ht="14.25">
-      <c r="A29" s="11">
-        <v>4</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <f>$M$15*$M$17</f>
-        <v>44000</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" ref="G29:Q29" si="8">$M$15*$M$17</f>
-        <v>44000</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="I29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="M29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="O29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="P29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="8"/>
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:56">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:56" ht="14.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:56" ht="14.25">
-      <c r="A32" s="11">
-        <v>2</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <f>($M$7*$M$5)</f>
-        <v>218750</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" ref="G32:Q32" si="9">F32*(1+$M$6)</f>
-        <v>223125</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="9"/>
-        <v>227587.5</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="9"/>
-        <v>232139.25</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="9"/>
-        <v>236782.035</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="9"/>
-        <v>241517.67570000002</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="9"/>
-        <v>246348.02921400004</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="9"/>
-        <v>251274.98979828003</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="9"/>
-        <v>256300.48959424565</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="9"/>
-        <v>261426.49938613057</v>
-      </c>
-      <c r="P32" s="11">
-        <f t="shared" si="9"/>
-        <v>266655.02937385318</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" si="9"/>
-        <v>271988.12996133027</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57" ht="14.25">
-      <c r="A33" s="13">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <f>$M$10</f>
-        <v>400000</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" ref="G33:Q33" si="10">$M$10</f>
-        <v>400000</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="I33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-      <c r="Q33" s="11">
-        <f t="shared" si="10"/>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57" ht="14.25">
-      <c r="A34" s="13">
-        <v>3</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <f>$M$12*$M$13</f>
-        <v>275000</v>
-      </c>
-      <c r="G34" s="11">
-        <f t="shared" ref="G34:Q34" si="11">$M$12*$M$13</f>
-        <v>275000</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="I34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="11"/>
-        <v>275000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" ht="14.25">
-      <c r="A35" s="11">
-        <v>4</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <f>$M$15*$M$16</f>
-        <v>187000</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" ref="G35:Q35" si="12">$M$15*$M$16</f>
-        <v>187000</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="I35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="K35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="L35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="M35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="N35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="O35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="P35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-      <c r="Q35" s="11">
-        <f t="shared" si="12"/>
-        <v>187000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57">
-      <c r="R36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="19"/>
-      <c r="T36" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" s="15" customFormat="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:Q37" si="13">SUM(C32:C35)-SUM(C22:C29)</f>
-        <v>-1100000</v>
-      </c>
-      <c r="D37" s="15">
-        <f t="shared" si="13"/>
-        <v>-1200000</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="13"/>
-        <v>-1300000</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="13"/>
-        <v>389500</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="13"/>
-        <v>392500</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" si="13"/>
-        <v>395560</v>
-      </c>
-      <c r="I37" s="15">
-        <f t="shared" si="13"/>
-        <v>398681.19999999995</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="13"/>
-        <v>401864.82400000014</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="13"/>
-        <v>405112.12048000004</v>
-      </c>
-      <c r="L37" s="15">
-        <f t="shared" si="13"/>
-        <v>408424.3628896001</v>
-      </c>
-      <c r="M37" s="15">
-        <f t="shared" si="13"/>
-        <v>411802.8501473919</v>
-      </c>
-      <c r="N37" s="15">
-        <f t="shared" si="13"/>
-        <v>415248.90715034003</v>
-      </c>
-      <c r="O37" s="15">
-        <f t="shared" si="13"/>
-        <v>418763.88529334671</v>
-      </c>
-      <c r="P37" s="15">
-        <f t="shared" si="13"/>
-        <v>422349.16299921367</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="13"/>
-        <v>426006.14625919785</v>
-      </c>
-      <c r="R37" s="20">
-        <f>NPV(C2,C37:Q37)</f>
-        <v>-902937.66605645732</v>
-      </c>
-      <c r="S37" s="19"/>
-      <c r="T37" s="11">
-        <f>IRR(C37:Q37)</f>
-        <v>4.2684659036619887E-2</v>
-      </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="11"/>
-      <c r="AS37" s="11"/>
-      <c r="AT37" s="11"/>
-      <c r="AU37" s="11"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="11"/>
-      <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="11"/>
-      <c r="BC37" s="11"/>
-      <c r="BD37" s="11"/>
-      <c r="BE37" s="11"/>
-    </row>
-    <row r="38" spans="1:57" ht="14.25">
-      <c r="A38" s="13">
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="11">
-        <f>C33-D7-C27</f>
-        <v>-132000</v>
-      </c>
-      <c r="D38" s="11">
-        <f>D33-E7-D27</f>
-        <v>-144000</v>
-      </c>
-      <c r="E38" s="11">
-        <f>E33-F7-E27</f>
-        <v>-156000</v>
-      </c>
-      <c r="F38" s="11">
-        <f>F33-F27</f>
-        <v>300000</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" ref="G38:Q38" si="14">G33-G27</f>
-        <v>300000</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="I38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="J38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="M38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="N38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="14"/>
-        <v>300000</v>
-      </c>
-      <c r="R38" s="15">
-        <f>NPV(C2,C38:Q38)</f>
-        <v>1179554.881193785</v>
-      </c>
-      <c r="S38" s="11">
-        <f>NPV(C2,F38:Q38)-(D7+E7/(1+C2)+F7/(1+C2)^2)</f>
-        <v>1652272.836125127</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" ref="T38:T42" si="15">IRR(C38:Q38)</f>
-        <v>0.45872771357285069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" ht="14.25">
-      <c r="A39" s="13">
-        <v>2</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="11">
-        <f>C32-D8-C25-C26</f>
-        <v>-110000</v>
-      </c>
-      <c r="D39" s="11">
-        <f>D32-E8-D25-D26</f>
-        <v>-120000</v>
-      </c>
-      <c r="E39" s="11">
-        <f>E32-F8-E25-E26</f>
-        <v>-130000</v>
-      </c>
-      <c r="F39" s="11">
-        <f>F32-F25-F26</f>
-        <v>105000</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" ref="G39:Q39" si="16">G32-G25-G26</f>
-        <v>108000</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="16"/>
-        <v>111060</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" si="16"/>
-        <v>114181.2</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="16"/>
-        <v>117364.82399999999</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="16"/>
-        <v>120612.12048000001</v>
-      </c>
-      <c r="L39" s="11">
-        <f t="shared" si="16"/>
-        <v>123924.36288960003</v>
-      </c>
-      <c r="M39" s="11">
-        <f t="shared" si="16"/>
-        <v>127302.85014739202</v>
-      </c>
-      <c r="N39" s="11">
-        <f t="shared" si="16"/>
-        <v>130748.90715033987</v>
-      </c>
-      <c r="O39" s="11">
-        <f t="shared" si="16"/>
-        <v>134263.88529334668</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" si="16"/>
-        <v>137849.16299921361</v>
-      </c>
-      <c r="Q39" s="11">
-        <f t="shared" si="16"/>
-        <v>141506.14625919791</v>
-      </c>
-      <c r="R39" s="15">
-        <f>NPV(C2,C39:Q39)</f>
-        <v>312242.40635974531</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" si="15"/>
-        <v>0.23755330964712629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57" ht="14.25">
-      <c r="A40" s="13">
-        <v>3</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" ref="C40:E40" si="17">C34-D9-C28</f>
-        <v>-154000.00000000003</v>
-      </c>
-      <c r="D40" s="11">
-        <f t="shared" si="17"/>
-        <v>-168000.00000000003</v>
-      </c>
-      <c r="E40" s="11">
-        <f t="shared" si="17"/>
-        <v>-182000.00000000003</v>
-      </c>
-      <c r="F40" s="11">
-        <f>F34-F28</f>
-        <v>250000</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" ref="G40:Q40" si="18">G34-G28</f>
-        <v>250000</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="L40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="M40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="O40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="18"/>
-        <v>250000</v>
-      </c>
-      <c r="R40" s="15">
-        <f>NPV(C2,C40:Q40)</f>
-        <v>864224.60986033548</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.35223280105575849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:57" ht="14.25">
-      <c r="A41" s="13">
-        <v>4</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="11">
-        <f>C35-D10-C29</f>
-        <v>-143000</v>
-      </c>
-      <c r="D41" s="11">
-        <f>D35-E10-D29</f>
-        <v>-156000</v>
-      </c>
-      <c r="E41" s="11">
-        <f>E35-F10-E29</f>
-        <v>-169000</v>
-      </c>
-      <c r="F41" s="11">
-        <f>F35-F29</f>
-        <v>143000</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" ref="G41:Q41" si="19">G35-G29</f>
-        <v>143000</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="I41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="J41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="K41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="M41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="O41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="19"/>
-        <v>143000</v>
-      </c>
-      <c r="R41" s="15">
-        <f>NPV(C2,C41:Q41)</f>
-        <v>346151.71350427438</v>
-      </c>
-      <c r="T41" s="11">
-        <f>IRR(C41:Q41)</f>
-        <v>0.22706205296702175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" ht="14.25">
-      <c r="A42" s="13">
-        <v>5</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="11">
-        <f>0-D11-C23-C25</f>
-        <v>-165000</v>
-      </c>
-      <c r="D42" s="11">
-        <f>0-E11-D23-D25</f>
-        <v>-180000</v>
-      </c>
-      <c r="E42" s="11">
-        <f>0-F11-E23-E25</f>
-        <v>-195000</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" ref="F42:Q42" si="20">0-F23-F24</f>
-        <v>-408500</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="J42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="K42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="L42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="M42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="O42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="P42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="Q42" s="11">
-        <f t="shared" si="20"/>
-        <v>-408500</v>
-      </c>
-      <c r="R42" s="15">
-        <f>NPV(C2,C42:Q42)</f>
-        <v>-2536471.1567642307</v>
-      </c>
-      <c r="T42" s="11" t="e">
-        <f t="shared" si="15"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92EE2F6-0D18-455A-9535-A29735CC143E}">
-  <dimension ref="A1:BD65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="11" customWidth="1"/>
-    <col min="3" max="5" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="11" customWidth="1"/>
-    <col min="10" max="11" width="12.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="11" customWidth="1"/>
-    <col min="13" max="17" width="12.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" style="11" customWidth="1"/>
-    <col min="19" max="19" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="11">
-        <v>5</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="11">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="11">
-        <v>5</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="D4" s="11">
-        <f>C22*C3</f>
-        <v>396000</v>
-      </c>
-      <c r="E4" s="11">
-        <f>D22*C3</f>
-        <v>432000</v>
-      </c>
-      <c r="F4" s="11">
-        <f>E22*C3</f>
-        <v>468000</v>
-      </c>
-      <c r="K4" s="11">
-        <v>5</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="K5" s="11">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="11">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.12</v>
-      </c>
-      <c r="D7" s="11">
-        <f>$C$22*C7</f>
-        <v>132000</v>
-      </c>
-      <c r="E7" s="11">
-        <f>$D$22*C7</f>
-        <v>144000</v>
-      </c>
-      <c r="F7" s="11">
-        <f>$E$22*C7</f>
-        <v>156000</v>
-      </c>
-      <c r="G7" s="11">
-        <f>NPV($C$2,C38:Q38)</f>
-        <v>1179554.881193785</v>
-      </c>
-      <c r="H7" s="11">
-        <f>G7/$G$12</f>
-        <v>0.36322188863211652</v>
-      </c>
-      <c r="K7" s="11">
-        <v>2</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="11">
-        <f>$C$22*C8</f>
-        <v>110000</v>
-      </c>
-      <c r="E8" s="11">
-        <f>$D$22*C8</f>
-        <v>120000</v>
-      </c>
-      <c r="F8" s="11">
-        <f>$E$22*C8</f>
-        <v>130000</v>
-      </c>
-      <c r="G8" s="11">
-        <f>NPV($C$2,C39:Q39)</f>
-        <v>312242.40635974531</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" ref="H8:H10" si="0">G8/$G$12</f>
-        <v>9.614921557040397E-2</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="11">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D9" s="11">
-        <f>$C$22*C9</f>
-        <v>154000.00000000003</v>
-      </c>
-      <c r="E9" s="11">
-        <f>$D$22*C9</f>
-        <v>168000.00000000003</v>
-      </c>
-      <c r="F9" s="11">
-        <f>$E$22*C9</f>
-        <v>182000.00000000003</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9" si="1">NPV($C$2,C40:Q40)</f>
-        <v>864224.60986033548</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.26612182273209101</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.13</v>
-      </c>
-      <c r="D10" s="11">
-        <f>$C$22*C10</f>
-        <v>143000</v>
-      </c>
-      <c r="E10" s="11">
-        <f>$D$22*C10</f>
-        <v>156000</v>
-      </c>
-      <c r="F10" s="11">
-        <f>$E$22*C10</f>
-        <v>169000</v>
-      </c>
-      <c r="G10" s="11">
-        <f>NPV($C$2,C41:Q41)</f>
-        <v>346151.71350427438</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.10659095319500451</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="11">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="D11" s="11">
-        <f>$C$22*C11</f>
-        <v>165000</v>
-      </c>
-      <c r="E11" s="11">
-        <f>$D$22*C11</f>
-        <v>180000</v>
-      </c>
-      <c r="F11" s="11">
-        <f>$E$22*C11</f>
-        <v>195000</v>
-      </c>
-      <c r="G11" s="11">
-        <f>NPV($C$2,C42:Q42)</f>
-        <v>545303.8074609004</v>
-      </c>
-      <c r="H11" s="11">
-        <f>G11/$G$12</f>
-        <v>0.16791611987038407</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(G7:G11)</f>
-        <v>3247477.4183790404</v>
-      </c>
-      <c r="K12" s="11">
-        <v>3</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="K13" s="11">
-        <v>3</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="K14" s="11">
-        <v>3</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="K15" s="11">
-        <v>4</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="11">
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="K16" s="11">
-        <v>4</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" ht="18" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="K17" s="11">
-        <v>4</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="11">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" ht="15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15">
-        <v>5</v>
-      </c>
-      <c r="H19" s="15">
-        <v>6</v>
-      </c>
-      <c r="I19" s="15">
-        <v>7</v>
-      </c>
-      <c r="J19" s="15">
-        <v>8</v>
-      </c>
-      <c r="K19" s="15">
-        <v>9</v>
-      </c>
-      <c r="L19" s="15">
-        <v>10</v>
-      </c>
-      <c r="M19" s="15">
-        <v>11</v>
-      </c>
-      <c r="N19" s="15">
-        <v>12</v>
-      </c>
-      <c r="O19" s="15">
-        <v>13</v>
-      </c>
-      <c r="P19" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" s="17" customFormat="1" ht="15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-    </row>
-    <row r="21" spans="1:56">
-      <c r="A21" s="11"/>
-      <c r="B21" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1100000</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1200000</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1300000</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56">
-      <c r="A23" s="11">
-        <v>5</v>
-      </c>
-      <c r="B23" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <f>($M$3*$M$2)</f>
-        <v>107500</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" ref="G23:Q23" si="2">($M$3*$M$2)</f>
-        <v>107500</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="L23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="2"/>
-        <v>107500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56">
-      <c r="A24" s="11">
-        <v>2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="G24" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="H24" s="11">
-        <f>$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="I24" s="11">
-        <f t="shared" ref="I24:Q24" si="3">$M$8</f>
-        <v>45000</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="K24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="L24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="P24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="Q24" s="11">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56">
-      <c r="A25" s="11">
-        <v>2</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="C25" s="11">
         <v>0</v>
@@ -5879,12 +4638,12 @@
         <v>85481.983702132347</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:56" ht="14.25">
       <c r="A26" s="11">
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11">
         <v>0</v>
@@ -5944,12 +4703,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" ht="14.25">
       <c r="A27" s="11">
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="11">
         <v>0</v>
@@ -6009,7 +4768,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" ht="14.25">
       <c r="A28" s="11">
         <v>4</v>
       </c>
@@ -6074,17 +4833,17 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="15">
+    <row r="29" spans="1:56">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:56" ht="14.25">
       <c r="A30" s="11"/>
       <c r="B30" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:56">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" ht="14.25">
       <c r="A31" s="11">
         <v>2</v>
       </c>
@@ -6149,7 +4908,7 @@
         <v>271988.12996133027</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" ht="14.25">
       <c r="A32" s="13">
         <v>1</v>
       </c>
@@ -6214,12 +4973,12 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:56" ht="14.25">
       <c r="A33" s="13">
         <v>3</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="11">
         <v>0</v>
@@ -6279,7 +5038,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:56" ht="14.25">
       <c r="A34" s="11">
         <v>4</v>
       </c>
@@ -6344,12 +5103,12 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:56" ht="14.25">
       <c r="A35" s="11">
         <v>5</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="11">
         <v>0</v>
@@ -6409,86 +5168,86 @@
         <v>301000</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:56" ht="14.25">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
       <c r="R36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:56" s="15" customFormat="1" ht="15">
+    <row r="37" spans="1:56" s="15" customFormat="1">
       <c r="A37" s="12"/>
       <c r="B37" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="15">
-        <f>SUM(C31:C35)-SUM(C22:C28)</f>
+        <f t="shared" ref="C37:Q37" si="13">SUM(C31:C35)-SUM(C22:C28)</f>
         <v>-1100000</v>
       </c>
       <c r="D37" s="15">
-        <f>SUM(D31:D35)-SUM(D22:D28)</f>
+        <f t="shared" si="13"/>
         <v>-1200000</v>
       </c>
       <c r="E37" s="15">
-        <f>SUM(E31:E35)-SUM(E22:E28)</f>
+        <f t="shared" si="13"/>
         <v>-1300000</v>
       </c>
       <c r="F37" s="15">
-        <f>SUM(F31:F35)-SUM(F22:F28)</f>
+        <f t="shared" si="13"/>
         <v>991500</v>
       </c>
       <c r="G37" s="15">
-        <f>SUM(G31:G35)-SUM(G22:G28)</f>
+        <f t="shared" si="13"/>
         <v>994500</v>
       </c>
       <c r="H37" s="15">
-        <f>SUM(H31:H35)-SUM(H22:H28)</f>
+        <f t="shared" si="13"/>
         <v>997560</v>
       </c>
       <c r="I37" s="15">
-        <f>SUM(I31:I35)-SUM(I22:I28)</f>
+        <f t="shared" si="13"/>
         <v>1000681.2</v>
       </c>
       <c r="J37" s="15">
-        <f>SUM(J31:J35)-SUM(J22:J28)</f>
+        <f t="shared" si="13"/>
         <v>1003864.8240000001</v>
       </c>
       <c r="K37" s="15">
-        <f>SUM(K31:K35)-SUM(K22:K28)</f>
+        <f t="shared" si="13"/>
         <v>1007112.12048</v>
       </c>
       <c r="L37" s="15">
-        <f>SUM(L31:L35)-SUM(L22:L28)</f>
+        <f t="shared" si="13"/>
         <v>1010424.3628896001</v>
       </c>
       <c r="M37" s="15">
-        <f>SUM(M31:M35)-SUM(M22:M28)</f>
+        <f t="shared" si="13"/>
         <v>1013802.8501473919</v>
       </c>
       <c r="N37" s="15">
-        <f>SUM(N31:N35)-SUM(N22:N28)</f>
+        <f t="shared" si="13"/>
         <v>1017248.90715034</v>
       </c>
       <c r="O37" s="15">
-        <f>SUM(O31:O35)-SUM(O22:O28)</f>
+        <f t="shared" si="13"/>
         <v>1020763.8852933467</v>
       </c>
       <c r="P37" s="15">
-        <f>SUM(P31:P35)-SUM(P22:P28)</f>
+        <f t="shared" si="13"/>
         <v>1024349.1629992137</v>
       </c>
       <c r="Q37" s="15">
-        <f>SUM(Q31:Q35)-SUM(Q22:Q28)</f>
+        <f t="shared" si="13"/>
         <v>1028006.1462591978</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="23">
         <f>NPV(C2,C37:Q37)</f>
         <v>2178837.2981686732</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="42">
         <f>IRR(C37:Q37)</f>
         <v>0.206237363190378</v>
       </c>
@@ -6530,7 +5289,7 @@
       <c r="BC37" s="11"/>
       <c r="BD37" s="11"/>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:56" ht="14.25">
       <c r="A38" s="13">
         <v>1</v>
       </c>
@@ -6550,63 +5309,63 @@
         <v>-156000</v>
       </c>
       <c r="F38" s="11">
-        <f>F32-F26</f>
+        <f t="shared" ref="F38:Q38" si="14">F32-F26</f>
         <v>300000</v>
       </c>
       <c r="G38" s="11">
-        <f>G32-G26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="H38" s="11">
-        <f>H32-H26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="I38" s="11">
-        <f>I32-I26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="J38" s="11">
-        <f>J32-J26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="K38" s="11">
-        <f>K32-K26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="L38" s="11">
-        <f>L32-L26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="M38" s="11">
-        <f>M32-M26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="N38" s="11">
-        <f>N32-N26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="O38" s="11">
-        <f>O32-O26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="P38" s="11">
-        <f>P32-P26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
       <c r="Q38" s="11">
-        <f>Q32-Q26</f>
+        <f t="shared" si="14"/>
         <v>300000</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="23">
         <f>NPV(C2,C38:Q38)</f>
         <v>1179554.881193785</v>
       </c>
-      <c r="S38" s="26">
-        <f t="shared" ref="S38:S42" si="13">IRR(C38:Q38)</f>
+      <c r="S38" s="42">
+        <f t="shared" ref="S38:S42" si="15">IRR(C38:Q38)</f>
         <v>0.45872771357285069</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:56" ht="14.25">
       <c r="A39" s="13">
         <v>2</v>
       </c>
@@ -6626,79 +5385,79 @@
         <v>-130000</v>
       </c>
       <c r="F39" s="11">
-        <f>F31-F24-F25</f>
+        <f t="shared" ref="F39:O39" si="16">F31-F24-F25</f>
         <v>105000</v>
       </c>
       <c r="G39" s="11">
-        <f>G31-G24-G25</f>
+        <f t="shared" si="16"/>
         <v>108000</v>
       </c>
       <c r="H39" s="11">
-        <f>H31-H24-H25</f>
+        <f t="shared" si="16"/>
         <v>111060</v>
       </c>
       <c r="I39" s="11">
-        <f>I31-I24-I25</f>
+        <f t="shared" si="16"/>
         <v>114181.2</v>
       </c>
       <c r="J39" s="11">
-        <f>J31-J24-J25</f>
+        <f t="shared" si="16"/>
         <v>117364.82399999999</v>
       </c>
       <c r="K39" s="11">
-        <f>K31-K24-K25</f>
+        <f t="shared" si="16"/>
         <v>120612.12048000001</v>
       </c>
       <c r="L39" s="11">
-        <f>L31-L24-L25</f>
+        <f t="shared" si="16"/>
         <v>123924.36288960003</v>
       </c>
       <c r="M39" s="11">
-        <f>M31-M24-M25</f>
+        <f t="shared" si="16"/>
         <v>127302.85014739202</v>
       </c>
       <c r="N39" s="11">
-        <f>N31-N24-N25</f>
+        <f t="shared" si="16"/>
         <v>130748.90715033987</v>
       </c>
       <c r="O39" s="11">
-        <f>O31-O24-O25</f>
+        <f t="shared" si="16"/>
         <v>134263.88529334668</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" ref="P39" si="14">P31-P24-P25</f>
+        <f t="shared" ref="P39" si="17">P31-P24-P25</f>
         <v>137849.16299921361</v>
       </c>
       <c r="Q39" s="11">
         <f>Q31-Q24-Q25</f>
         <v>141506.14625919791</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="23">
         <f>NPV(C2,C39:Q39)</f>
         <v>312242.40635974531</v>
       </c>
-      <c r="S39" s="26">
-        <f t="shared" si="13"/>
+      <c r="S39" s="42">
+        <f t="shared" si="15"/>
         <v>0.23755330964712629</v>
       </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:56" ht="14.25">
       <c r="A40" s="13">
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="11">
-        <f>C33-D9-C27</f>
+        <f t="shared" ref="C40:E41" si="18">C33-D9-C27</f>
         <v>-154000.00000000003</v>
       </c>
       <c r="D40" s="11">
-        <f>D33-E9-D27</f>
+        <f t="shared" si="18"/>
         <v>-168000.00000000003</v>
       </c>
       <c r="E40" s="11">
-        <f>E33-F9-E27</f>
+        <f t="shared" si="18"/>
         <v>-182000.00000000003</v>
       </c>
       <c r="F40" s="11">
@@ -6706,59 +5465,59 @@
         <v>250000</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:Q41" si="15">G33-G27</f>
+        <f t="shared" ref="G40:Q41" si="19">G33-G27</f>
         <v>250000</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="23">
         <f>NPV(C2,C40:Q40)</f>
         <v>864224.60986033548</v>
       </c>
-      <c r="S40" s="26">
-        <f t="shared" si="13"/>
+      <c r="S40" s="42">
+        <f t="shared" si="15"/>
         <v>0.35223280105575849</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:56" ht="14.25">
       <c r="A41" s="13">
         <v>4</v>
       </c>
@@ -6766,15 +5525,15 @@
         <v>45</v>
       </c>
       <c r="C41" s="11">
-        <f>C34-D10-C28</f>
+        <f t="shared" si="18"/>
         <v>-143000</v>
       </c>
       <c r="D41" s="11">
-        <f>D34-E10-D28</f>
+        <f t="shared" si="18"/>
         <v>-156000</v>
       </c>
       <c r="E41" s="11">
-        <f>E34-F10-E28</f>
+        <f t="shared" si="18"/>
         <v>-169000</v>
       </c>
       <c r="F41" s="11">
@@ -6782,7 +5541,7 @@
         <v>143000</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="H41" s="11">
@@ -6790,51 +5549,51 @@
         <v>143000</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>143000</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="23">
         <f>NPV(C2,C41:Q41)</f>
         <v>346151.71350427438</v>
       </c>
-      <c r="S41" s="26">
+      <c r="S41" s="42">
         <f>IRR(C41:Q41)</f>
         <v>0.22706205296702175</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:56" ht="14.25">
       <c r="A42" s="13">
         <v>5</v>
       </c>
@@ -6858,81 +5617,80 @@
         <v>193500</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" ref="G42:Q42" si="16">G35-G23</f>
+        <f t="shared" ref="G42:Q42" si="20">G35-G23</f>
         <v>193500</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="J42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="N42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="O42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>193500</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="23">
         <f>NPV(C2,C42:Q42)</f>
         <v>545303.8074609004</v>
       </c>
-      <c r="S42" s="26">
-        <f t="shared" si="13"/>
+      <c r="S42" s="42">
+        <f t="shared" si="15"/>
         <v>0.26498761735074705</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="15"/>
-    <row r="44" spans="1:56" ht="15">
-      <c r="A44" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:56" ht="15">
-      <c r="A45" s="27"/>
+    <row r="44" spans="1:56">
+      <c r="A44" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56">
+      <c r="A45" s="24"/>
       <c r="B45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="25">
         <v>1</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="25">
         <v>2</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:56">
-      <c r="A46" s="22">
+    <row r="46" spans="1:56" ht="14.25">
+      <c r="A46" s="21">
         <v>1</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -6951,8 +5709,8 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="47" spans="1:56">
-      <c r="A47" s="22">
+    <row r="47" spans="1:56" ht="14.25">
+      <c r="A47" s="21">
         <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -6963,36 +5721,36 @@
         <v>110000</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" ref="C47:E50" si="17">E8</f>
+        <f t="shared" ref="C47:E50" si="21">E8</f>
         <v>120000</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>130000</v>
       </c>
     </row>
-    <row r="48" spans="1:56">
-      <c r="A48" s="22">
+    <row r="48" spans="1:56" ht="14.25">
+      <c r="A48" s="21">
         <v>3</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>154000.00000000003</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>168000.00000000003</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>182000.00000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="22">
+    <row r="49" spans="1:18" ht="14.25">
+      <c r="A49" s="21">
         <v>4</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -7003,7 +5761,7 @@
         <v>143000</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>156000</v>
       </c>
       <c r="E49" s="11">
@@ -7011,56 +5769,56 @@
         <v>169000</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="22">
+    <row r="50" spans="1:18" ht="14.25">
+      <c r="A50" s="21">
         <v>5</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>165000</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>180000</v>
       </c>
       <c r="E50" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>195000</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15">
+    <row r="52" spans="1:18">
       <c r="B52" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="31" t="s">
+      <c r="D52" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:18" ht="14.25">
+      <c r="A53" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="30">
+    <row r="54" spans="1:18" ht="14.25">
+      <c r="A54" s="27">
         <v>1</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="26">
         <f>C46</f>
         <v>132000</v>
       </c>
@@ -7068,7 +5826,7 @@
         <f>C47</f>
         <v>110000</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="26">
         <f>C48</f>
         <v>154000.00000000003</v>
       </c>
@@ -7076,57 +5834,57 @@
         <f>C49</f>
         <v>143000</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="26">
         <f>C50</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="30">
+    <row r="55" spans="1:18" ht="14.25">
+      <c r="A55" s="27">
         <v>2</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="27">
         <f>$D$46+$B$54*(1+$C$2)</f>
         <v>289200</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="27">
         <f>$D$47+$C$54*(1+$C$2)</f>
         <v>241000</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="27">
         <f>$D$48+$D$54*(1+$C$2)</f>
         <v>337400.00000000012</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="27">
         <f>$D$49+$E$54*(1+$C$2)</f>
         <v>313300</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="27">
         <f>$D$50+$F$54*(1+$C$2)</f>
         <v>361500</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="30">
+    <row r="56" spans="1:18" ht="14.25">
+      <c r="A56" s="27">
         <v>3</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="27">
         <f>$E$46+(1+$C$2)*$B$55</f>
         <v>474120</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="27">
         <f>$E$47+(1+$C$2)*$C$55</f>
         <v>395100</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="27">
         <f>$E$48+(1+$C$2)*$D$55</f>
         <v>553140.00000000023</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="27">
         <f>$E$49+(1+$C$2)*$E$55</f>
         <v>513630</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="27">
         <f>$E$50+(1+$C$2)*$F$55</f>
         <v>592650</v>
       </c>
@@ -7137,19 +5895,19 @@
         <v>69583.422955348229</v>
       </c>
       <c r="C57" s="19">
-        <f t="shared" ref="C57:F57" si="18">-PMT($C$2,12,C56)</f>
+        <f t="shared" ref="C57:F57" si="22">-PMT($C$2,12,C56)</f>
         <v>57986.185796123522</v>
       </c>
       <c r="D57" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>81180.660114572966</v>
       </c>
       <c r="E57" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>75382.04153496059</v>
       </c>
       <c r="F57" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>86979.278694185297</v>
       </c>
     </row>
@@ -7202,14 +5960,14 @@
       <c r="P60" s="15">
         <v>15</v>
       </c>
-      <c r="Q60" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="R60" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="Q60" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R60" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="14.25">
       <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
@@ -7227,27 +5985,27 @@
         <v>69583.422955348229</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" ref="F61:P61" si="19">$B$57</f>
+        <f t="shared" ref="F61:P61" si="23">$B$57</f>
         <v>69583.422955348229</v>
       </c>
       <c r="G61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="I61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="J61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="L61" s="11">
@@ -7255,19 +6013,19 @@
         <v>69583.422955348229</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>69583.422955348229</v>
       </c>
       <c r="Q61" s="11">
@@ -7279,7 +6037,7 @@
         <v>356213.373403456</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" ht="14.25">
       <c r="A62" s="13" t="s">
         <v>50</v>
       </c>
@@ -7297,61 +6055,61 @@
         <v>57986.185796123522</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" ref="F62:P62" si="20">$C$57</f>
+        <f t="shared" ref="F62:P62" si="24">$C$57</f>
         <v>57986.185796123522</v>
       </c>
       <c r="G62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="I62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="J62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="M62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="O62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="P62" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>57986.185796123522</v>
       </c>
       <c r="Q62" s="11">
-        <f t="shared" ref="Q62:Q65" si="21">NPV($C$2,B62:P62)</f>
+        <f t="shared" ref="Q62:Q64" si="25">NPV($C$2,B62:P62)</f>
         <v>296844.47783621319</v>
       </c>
       <c r="R62" s="11">
-        <f t="shared" ref="R62:R65" si="22">NPV($C$2,C47:E47)</f>
+        <f t="shared" ref="R62:R64" si="26">NPV($C$2,C47:E47)</f>
         <v>296844.47783621331</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="11">
         <v>0</v>
@@ -7367,59 +6125,59 @@
         <v>81180.660114572966</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" ref="F63:P63" si="23">$D$57</f>
+        <f t="shared" ref="F63:P63" si="27">$D$57</f>
         <v>81180.660114572966</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="J63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="O63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="P63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>81180.660114572966</v>
       </c>
       <c r="Q63" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>415582.26897069864</v>
       </c>
       <c r="R63" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>415582.26897069876</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="13" t="s">
         <v>45</v>
       </c>
@@ -7437,59 +6195,59 @@
         <v>75382.04153496059</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" ref="F64:P64" si="24">$E$57</f>
+        <f t="shared" ref="F64:P64" si="28">$E$57</f>
         <v>75382.04153496059</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="I64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="N64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="O64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="P64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>75382.04153496059</v>
       </c>
       <c r="Q64" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>385897.82118707721</v>
       </c>
       <c r="R64" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>385897.82118707726</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
@@ -7507,47 +6265,47 @@
         <v>86979.278694185297</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" ref="F65:P65" si="25">$F$57</f>
+        <f t="shared" ref="F65:P65" si="29">$F$57</f>
         <v>86979.278694185297</v>
       </c>
       <c r="G65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="H65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="J65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="N65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="O65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>86979.278694185297</v>
       </c>
       <c r="Q65" s="11">
